--- a/results/gurobi_cplex_comparison/seed_40_k_10.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_10.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.014</v>
+        <v>0.408</v>
       </c>
       <c r="F3">
-        <v>0.038</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.008</v>
+        <v>0.538</v>
       </c>
       <c r="F4">
-        <v>0.028</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.025</v>
+        <v>0.715</v>
       </c>
       <c r="F5">
-        <v>0.045</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.013</v>
+        <v>0.902</v>
       </c>
       <c r="F6">
-        <v>0.048</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.012</v>
+        <v>1.101</v>
       </c>
       <c r="F7">
-        <v>0.049</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>1.358</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.034</v>
+        <v>1.6</v>
       </c>
       <c r="F9">
-        <v>0.066</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.019</v>
+        <v>1.877</v>
       </c>
       <c r="F10">
-        <v>0.041</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.025</v>
+        <v>2.177</v>
       </c>
       <c r="F11">
-        <v>0.052</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.042</v>
+        <v>2.513</v>
       </c>
       <c r="F12">
-        <v>87.27</v>
+        <v>44.529</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03</v>
+        <v>2.809</v>
       </c>
       <c r="F13">
-        <v>81.428</v>
+        <v>38.245</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.038</v>
+        <v>3.202</v>
       </c>
       <c r="F14">
-        <v>116.491</v>
+        <v>35.337</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F15">
-        <v>107.262</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.037</v>
+        <v>4.057</v>
       </c>
       <c r="F16">
-        <v>45.887</v>
+        <v>65.806</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.047</v>
+        <v>4.424</v>
       </c>
       <c r="F17">
-        <v>57.46</v>
+        <v>37.781</v>
       </c>
     </row>
   </sheetData>
